--- a/spliced/struggle/2023-03-25_18-15-13/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-13/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.859649509191513</v>
+        <v>-0.2141320705413827</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.330253005027771</v>
+        <v>-2.326400130987168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8296890035271645</v>
+        <v>-2.468529105186464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.144926071166992</v>
+        <v>2.301481246948242</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.312361717224121</v>
+        <v>-1.784020185470581</v>
       </c>
       <c r="C3" t="n">
-        <v>1.558097973465919</v>
+        <v>0.5732603073120117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9796496629714961</v>
+        <v>0.7297354936599727</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.501853108406068</v>
+        <v>-2.234472751617432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.805212467908859</v>
+        <v>-4.658630132675173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.113102197647095</v>
+        <v>1.63190019130707</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.100376844406128</v>
+        <v>-2.561783850193024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.09928292036056524</v>
+        <v>-1.591027021408075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.049683928489686</v>
+        <v>0.6863539814949051</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.358428567647934</v>
+        <v>-1.503557689487935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1852286756038664</v>
+        <v>1.746999144554136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.391860485076905</v>
+        <v>0.2367095947265618</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.859747111797333</v>
+        <v>-1.311740666627883</v>
       </c>
       <c r="C7" t="n">
-        <v>1.326272606849671</v>
+        <v>-0.07715380191802312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.678943946957589</v>
+        <v>1.296695142984393</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.980456888675691</v>
+        <v>-3.332512527704244</v>
       </c>
       <c r="C8" t="n">
-        <v>1.464148312807084</v>
+        <v>-2.418631196022031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.769195675849915</v>
+        <v>1.87941366434097</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7857580184936523</v>
+        <v>-4.668229699134821</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2256948947906494</v>
+        <v>-1.045372545719146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.243836656212808</v>
+        <v>0.3820920586585984</v>
       </c>
       <c r="B10" t="n">
-        <v>1.433182954788209</v>
+        <v>-1.311929136514663</v>
       </c>
       <c r="C10" t="n">
-        <v>3.148937374353411</v>
+        <v>0.04638075828551969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.817864775657655</v>
+        <v>2.75743055343628</v>
       </c>
       <c r="B11" t="n">
-        <v>2.509267210960388</v>
+        <v>-3.144901037216187</v>
       </c>
       <c r="C11" t="n">
-        <v>1.027155995368958</v>
+        <v>4.137303829193115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3439646363258361</v>
+        <v>4.460695505142212</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1777501702308659</v>
+        <v>1.830066174268722</v>
       </c>
       <c r="C12" t="n">
-        <v>1.387071877717972</v>
+        <v>-0.1949661374092102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.004268169403076193</v>
+        <v>-3.40113162994386</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.125015139579771</v>
+        <v>3.317261695861818</v>
       </c>
       <c r="C13" t="n">
-        <v>1.818426370620727</v>
+        <v>1.794482350349431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7684953808784497</v>
+        <v>0.008035421371476836</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6692355871200577</v>
+        <v>-0.4300747811794388</v>
       </c>
       <c r="C14" t="n">
-        <v>1.696532160043717</v>
+        <v>2.762799173593522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.423688530921939</v>
+        <v>1.565377473831186</v>
       </c>
       <c r="B15" t="n">
-        <v>1.122814357280737</v>
+        <v>-1.947239398956303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7759754657745419</v>
+        <v>1.930309116840367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2141320705413827</v>
+        <v>-0.791193664073943</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.326400130987168</v>
+        <v>-1.430967807769773</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.468529105186464</v>
+        <v>0.315328881144527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.301481246948242</v>
+        <v>0.01700598001480103</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.784020185470581</v>
+        <v>-0.8887928128242493</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5732603073120117</v>
+        <v>0.1178494691848755</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7297354936599727</v>
+        <v>3.75538071990013</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.234472751617432</v>
+        <v>1.982138156890872</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.658630132675173</v>
+        <v>1.528477013111122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.63190019130707</v>
+        <v>4.293412685394287</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.561783850193024</v>
+        <v>-2.266220092773437</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.591027021408075</v>
+        <v>-9.760974884033203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6863539814949051</v>
+        <v>2.267539381980895</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.503557689487935</v>
+        <v>-2.359471559524536</v>
       </c>
       <c r="C20" t="n">
-        <v>1.746999144554136</v>
+        <v>-1.19436234235763</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2367095947265618</v>
+        <v>-1.645043730735778</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.311740666627883</v>
+        <v>-1.020936071872711</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.07715380191802312</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.296695142984393</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.332512527704244</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.418631196022031</v>
+        <v>0.8753915429115292</v>
       </c>
     </row>
   </sheetData>
